--- a/src/main/resources/excel/Food.xlsx
+++ b/src/main/resources/excel/Food.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Food 9" sheetId="1" state="visible" r:id="rId2"/>
@@ -417,7 +417,7 @@
     <t xml:space="preserve">Fruta</t>
   </si>
   <si>
-    <t xml:space="preserve">Cookie (US)</t>
+    <t xml:space="preserve">Cookie</t>
   </si>
   <si>
     <t xml:space="preserve">Galleta</t>
@@ -838,11 +838,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -914,7 +914,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1058,7 +1058,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1202,7 +1202,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1346,7 +1346,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1486,11 +1486,11 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1634,7 +1634,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1778,7 +1778,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1922,7 +1922,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.62"/>
